--- a/spreadsheet/macrofree/azurefrontdoor_sg_checklist.ko.xlsx
+++ b/spreadsheet/macrofree/azurefrontdoor_sg_checklist.ko.xlsx
@@ -1061,12 +1061,12 @@
       <c r="B8" s="21" t="n"/>
       <c r="C8" s="21" t="inlineStr">
         <is>
-          <t>배포 전략을 지원하는 라우팅 방법을 선택합니다.  구성된 가중치 계수에 따라 트래픽을 분산하는 가중치 적용 방법은 액티브-액티브 모델을 지원합니다.  모든 트래픽을 수신하고 백업으로 보조 지역으로 트래픽을 보내도록 주 지역을 구성하는 우선 순위 기반 값은 활성-수동 모델을 지원합니다.  앞의 방법을 지연 시간과 결합하여 지연 시간이 가장 낮은 오리진이 트래픽을 수신하도록 합니다.</t>
+          <t>배포 전략을 지원하는 라우팅 방법을 선택합니다.  구성된 가중치 계수에 따라 트래픽을 분산하는 가중치 방법은 액티브-액티브 모델을 지원합니다.  모든 트래픽을 수신하고 보조 지역으로 트래픽을 백업으로 보내도록 주 지역을 구성하는 우선 순위 기반 값은 활성-수동 모델을 지원합니다.  앞의 방법을 지연 시간과 결합하여 지연 시간이 가장 낮은 오리진이 트래픽을 수신하도록 합니다.</t>
         </is>
       </c>
       <c r="D8" s="21" t="inlineStr">
         <is>
-          <t>일련의 의사 결정 단계와 설계를 사용하여 최상의 원본 리소스를 선택할 수 있습니다. 선택한 오리진은 지정된 가중치 비율로 허용 가능한 지연 시간 범위 내에서 트래픽을 처리합니다.</t>
+          <t>일련의 결정 단계와 설계를 사용하여 최상의 원본 리소스를 선택할 수 있습니다. 선택한 오리진은 지정된 가중치 비율로 허용 가능한 지연 시간 범위 내에서 트래픽을 처리합니다.</t>
         </is>
       </c>
       <c r="E8" s="21" t="n"/>
@@ -1095,7 +1095,7 @@
       <c r="B9" s="21" t="n"/>
       <c r="C9" s="21" t="inlineStr">
         <is>
-          <t>하나 이상의 백 엔드 풀에 여러 원본을 두어 중복성을 지원합니다. 항상 응용 프로그램의 중복 인스턴스를 사용하고 각 인스턴스가 끝점 또는 원본을 노출하는지 확인합니다. 이러한 원본을 하나 이상의 백 엔드 풀에 배치할 수 있습니다.</t>
+          <t>하나 이상의 백 엔드 풀에 여러 원본을 두어 중복성을 지원합니다. 항상 응용 프로그램의 중복 인스턴스를 가지고 있으며 각 인스턴스가 끝점 또는 원본을 노출하는지 확인하십시오. 이러한 원본을 하나 이상의 백 엔드 풀에 배치할 수 있습니다.</t>
         </is>
       </c>
       <c r="D9" s="21" t="inlineStr">
@@ -1197,7 +1197,7 @@
       <c r="B12" s="21" t="n"/>
       <c r="C12" s="21" t="inlineStr">
         <is>
-          <t>Azure Front Door 및 원본에서 동일한 호스트 이름을 사용합니다. Azure Front Door는 들어오는 요청의 호스트 헤더를 다시 작성할 수 있으며, 이는 하나의 원본으로 라우팅되는 여러 사용자 지정 도메인 이름이 있는 경우에 유용합니다. 그러나 호스트 헤더를 다시 작성하면 요청 쿠키 및 URL 리디렉션에 문제가 발생할 수 있습니다.</t>
+          <t>Azure Front Door 및 원본에서 동일한 호스트 이름을 사용합니다. Azure Front Door는 들어오는 요청의 호스트 헤더를 다시 쓸 수 있으며, 이는 하나의 원본으로 라우팅되는 여러 사용자 지정 도메인 이름이 있는 경우에 유용합니다. 그러나 호스트 헤더를 다시 작성하면 요청 쿠키 및 URL 리디렉션에 문제가 발생할 수 있습니다.</t>
         </is>
       </c>
       <c r="D12" s="21" t="inlineStr">
@@ -1299,7 +1299,7 @@
       <c r="B15" s="21" t="n"/>
       <c r="C15" s="21" t="inlineStr">
         <is>
-          <t>잠재적으로 악의적인 트래픽을 탐지하고 차단하는 WAF 규칙 집합을 사용하도록 설정합니다. 이 기능은 프리미엄 계층에서 사용할 수 있습니다. 다음 규칙 집합을 사용하는 것이 좋습니다. - 기본- 봇 보호- IP 제한- 지역 필터링- 속도 제한</t>
+          <t>잠재적으로 악의적인 트래픽을 탐지하고 차단하는 WAF 규칙 집합을 사용하도록 설정합니다. 이 기능은 프리미엄 계층에서 사용할 수 있습니다. - 기본- 봇 보호- IP 제한- 지역 필터링- 속도 제한 규칙 집합을 사용하는 것이 좋습니다.</t>
         </is>
       </c>
       <c r="D15" s="21" t="inlineStr">
@@ -1372,7 +1372,7 @@
       </c>
       <c r="D17" s="21" t="inlineStr">
         <is>
-          <t>TLS는 브라우저, Azure Front Door 및 백 엔드 원본 간의 데이터 교환이 암호화되어 변조를 방지하도록 합니다.  Key Vault는 관리형 인증서 지원과 간단한 인증서 갱신 및 회전을 제공합니다.</t>
+          <t>TLS는 변조를 방지하기 위해 브라우저, Azure Front Door 및 백 엔드 원본 간의 데이터 교환이 암호화되도록 합니다.  Key Vault는 관리형 인증서 지원과 간단한 인증서 갱신 및 회전을 제공합니다.</t>
         </is>
       </c>
       <c r="E17" s="21" t="n"/>
@@ -1503,7 +1503,7 @@
       <c r="B21" s="21" t="n"/>
       <c r="C21" s="21" t="inlineStr">
         <is>
-          <t>HTTP에서 HTTPS로의 리디렉션을 사용하여 이후 버전 호환성을 지원합니다.</t>
+          <t>HTTP에서 HTTPS로의 리디렉션을 사용하여 이후 버전과의 호환성을 지원합니다.</t>
         </is>
       </c>
       <c r="D21" s="21" t="inlineStr">
@@ -1712,7 +1712,7 @@
       </c>
       <c r="D27" s="21" t="inlineStr">
         <is>
-          <t>Azure Front Door의 압축은 최적의 형식으로 콘텐츠를 제공하고, 페이로드가 더 작고, 사용자에게 콘텐츠를 더 빠르게 제공하는 데 도움이 됩니다.</t>
+          <t>Azure Front Door의 압축은 최적의 형식으로 콘텐츠를 제공하고, 페이로드가 더 작고, 사용자에게 콘텐츠를 더 빠르게 전달하는 데 도움이 됩니다.</t>
         </is>
       </c>
       <c r="E27" s="21" t="n"/>
@@ -1773,12 +1773,12 @@
       <c r="B29" s="21" t="n"/>
       <c r="C29" s="21" t="inlineStr">
         <is>
-          <t>동일한 사용자의 요청이 동일한 백엔드 서버로 전달되어야 하는 경우 세션 선호도를 활성화해야 하는지 여부를 평가합니다.  안정성 관점에서는 이 방법을 권장하지 않습니다. 이 옵션을 사용하면 응용 프로그램이 사용자 세션을 중단하지 않고 정상적으로 복구되어야 합니다.  또한 부하 분산에는 여러 백엔드에 트래픽을 균등하게 분산하는 유연성을 제한하기 때문에 절충안이 있습니다.</t>
+          <t>동일한 사용자의 요청이 동일한 백엔드 서버로 전달되어야 하는 경우 세션 선호도를 사용하도록 설정해야 하는지 여부를 평가합니다.  안정성 관점에서는 이 방법을 사용하지 않는 것이 좋습니다. 이 옵션을 사용하면 응용 프로그램이 사용자 세션을 중단하지 않고 정상적으로 복구되어야 합니다.  또한 부하 분산에 대한 절충안이 있는데, 이는 여러 백 엔드에 트래픽을 균등하게 분산하는 유연성을 제한하기 때문입니다.</t>
         </is>
       </c>
       <c r="D29" s="21" t="inlineStr">
         <is>
-          <t>성능을 최적화하고 사용자 세션의 연속성을 유지하며, 특히 응용 프로그램이 로컬에서 상태 정보를 유지 관리해야 하는 경우 더욱 그렇습니다.</t>
+          <t>성능을 최적화하고 사용자 세션의 연속성을 유지하며, 특히 응용 프로그램이 로컬에서 상태 정보를 유지 관리하는 데 의존하는 경우 더욱 그렇습니다.</t>
         </is>
       </c>
       <c r="E29" s="21" t="n"/>

--- a/spreadsheet/macrofree/azurefrontdoor_sg_checklist.ko.xlsx
+++ b/spreadsheet/macrofree/azurefrontdoor_sg_checklist.ko.xlsx
@@ -1061,12 +1061,12 @@
       <c r="B8" s="21" t="n"/>
       <c r="C8" s="21" t="inlineStr">
         <is>
-          <t>배포 전략을 지원하는 라우팅 방법을 선택합니다.  구성된 가중치 계수에 따라 트래픽을 분산하는 가중치 방법은 액티브-액티브 모델을 지원합니다.  모든 트래픽을 수신하고 보조 지역으로 트래픽을 백업으로 보내도록 주 지역을 구성하는 우선 순위 기반 값은 활성-수동 모델을 지원합니다.  앞의 방법을 지연 시간과 결합하여 지연 시간이 가장 낮은 오리진이 트래픽을 수신하도록 합니다.</t>
+          <t>배포 전략을 지원하는 라우팅 방법을 선택합니다.  구성된 가중치 계수에 따라 트래픽을 분산하는 가중치 적용 방법은 액티브-액티브 모델을 지원합니다.  모든 트래픽을 수신하고 백업으로 보조 지역으로 트래픽을 보내도록 주 지역을 구성하는 우선 순위 기반 값은 활성-수동 모델을 지원합니다.  이전 방법을 지연 시간과 결합하여 지연 시간이 가장 낮은 오리진이 트래픽을 수신하도록 합니다.</t>
         </is>
       </c>
       <c r="D8" s="21" t="inlineStr">
         <is>
-          <t>일련의 결정 단계와 설계를 사용하여 최상의 원본 리소스를 선택할 수 있습니다. 선택한 오리진은 지정된 가중치 비율로 허용 가능한 지연 시간 범위 내에서 트래픽을 처리합니다.</t>
+          <t>일련의 의사 결정 단계와 설계를 사용하여 최상의 원본 리소스를 선택할 수 있습니다. 선택한 오리진은 지정된 가중치 비율로 허용 가능한 지연 시간 범위 내에서 트래픽을 처리합니다.</t>
         </is>
       </c>
       <c r="E8" s="21" t="n"/>
@@ -1095,7 +1095,7 @@
       <c r="B9" s="21" t="n"/>
       <c r="C9" s="21" t="inlineStr">
         <is>
-          <t>하나 이상의 백 엔드 풀에 여러 원본을 두어 중복성을 지원합니다. 항상 응용 프로그램의 중복 인스턴스를 가지고 있으며 각 인스턴스가 끝점 또는 원본을 노출하는지 확인하십시오. 이러한 원본을 하나 이상의 백 엔드 풀에 배치할 수 있습니다.</t>
+          <t>하나 이상의 백 엔드 풀에 여러 원본을 두어 중복성을 지원합니다. 항상 응용 프로그램의 중복 인스턴스를 사용하고 각 인스턴스가 끝점 또는 원본을 노출하는지 확인합니다. 이러한 원본을 하나 이상의 백 엔드 풀에 배치할 수 있습니다.</t>
         </is>
       </c>
       <c r="D9" s="21" t="inlineStr">
@@ -1197,12 +1197,12 @@
       <c r="B12" s="21" t="n"/>
       <c r="C12" s="21" t="inlineStr">
         <is>
-          <t>Azure Front Door 및 원본에서 동일한 호스트 이름을 사용합니다. Azure Front Door는 들어오는 요청의 호스트 헤더를 다시 쓸 수 있으며, 이는 하나의 원본으로 라우팅되는 여러 사용자 지정 도메인 이름이 있는 경우에 유용합니다. 그러나 호스트 헤더를 다시 작성하면 요청 쿠키 및 URL 리디렉션에 문제가 발생할 수 있습니다.</t>
+          <t>Azure Front Door 및 원본에서 동일한 호스트 이름을 사용합니다. Azure Front Door는 들어오는 요청의 호스트 헤더를 다시 작성할 수 있으며, 이는 하나의 원본으로 라우팅되는 여러 사용자 지정 도메인 이름이 있는 경우에 유용합니다. 그러나 호스트 헤더를 다시 작성하면 요청 쿠키 및 URL 리디렉션에 문제가 발생할 수 있습니다.</t>
         </is>
       </c>
       <c r="D12" s="21" t="inlineStr">
         <is>
-          <t>세션 어피니티(affinity), 인증(authentication), 권한 부여(authorization)로 인한 오작동을 방지하기 위해 동일한 호스트 이름을 설정합니다. 자세한 내용은 역방향 프록시와 해당 백 엔드 웹 응용 프로그램 간의 원래 HTTP 호스트 이름 유지를 참조하세요.</t>
+          <t>세션 어피니티(affinity), 인증(authentication), 권한 부여(authorization)로 인한 오작동을 방지하기 위해 동일한 호스트 이름을 설정합니다. 자세한 내용은 역방향 프록시와 해당 백 엔드 웹 응용 프로그램 간에 원래 HTTP 호스트 이름 유지를 참조하세요.</t>
         </is>
       </c>
       <c r="E12" s="21" t="n"/>
@@ -1270,7 +1270,7 @@
       </c>
       <c r="D14" s="21" t="inlineStr">
         <is>
-          <t>클라이언트가 애플리케이션에 너무 많은 트래픽을 보내는 것을 방지하기 위해 요청을 제한합니다. 속도 제한은 재시도 폭풍과 같은 문제를 방지하는 데 도움이 될 수 있습니다.</t>
+          <t>요청을 제한하여 클라이언트가 애플리케이션에 너무 많은 트래픽을 보내지 않도록 합니다. 속도 제한은 재시도 폭풍과 같은 문제를 방지하는 데 도움이 될 수 있습니다.</t>
         </is>
       </c>
       <c r="E14" s="21" t="n"/>
@@ -1299,7 +1299,7 @@
       <c r="B15" s="21" t="n"/>
       <c r="C15" s="21" t="inlineStr">
         <is>
-          <t>잠재적으로 악의적인 트래픽을 탐지하고 차단하는 WAF 규칙 집합을 사용하도록 설정합니다. 이 기능은 프리미엄 계층에서 사용할 수 있습니다. - 기본- 봇 보호- IP 제한- 지역 필터링- 속도 제한 규칙 집합을 사용하는 것이 좋습니다.</t>
+          <t>잠재적으로 악의적인 트래픽을 감지하고 차단하는 WAF 규칙 집합을 사용하도록 설정합니다. 이 기능은 프리미엄 계층에서 사용할 수 있습니다. - 기본- 봇 보호- IP 제한- 지역 필터링- 속도 제한 규칙 집합을 사용하는 것이 좋습니다.</t>
         </is>
       </c>
       <c r="D15" s="21" t="inlineStr">
@@ -1333,7 +1333,7 @@
       <c r="B16" s="21" t="n"/>
       <c r="C16" s="21" t="inlineStr">
         <is>
-          <t>관리형 규칙 집합에 대한 제외를 만듭니다.  몇 주 동안 검색 모드에서 WAF 정책을 테스트하고 배포하기 전에 가양성을 조정합니다.</t>
+          <t>관리되는 규칙 집합에 대한 제외를 만듭니다.  몇 주 동안 검색 모드에서 WAF 정책을 테스트하고 배포하기 전에 가양성을 조정합니다.</t>
         </is>
       </c>
       <c r="D16" s="21" t="inlineStr">
@@ -1367,7 +1367,7 @@
       <c r="B17" s="21" t="n"/>
       <c r="C17" s="21" t="inlineStr">
         <is>
-          <t>엔드투엔드 TLS, HTTP에서 HTTPS로 리디렉션 및 관리형 TLS 인증서(해당하는 경우)를 사용하도록 설정합니다.  Azure Front Door에 대한 TLS 모범 사례를 검토합니다.  TLS 버전 1.2를 애플리케이션과 관련된 암호와 함께 허용되는 최소 버전으로 사용합니다.  Azure Front Door 관리형 인증서는 작업을 쉽게 하기 위해 기본 선택이어야 합니다. 그러나 인증서의 수명 주기를 관리하려면 Azure Front Door 사용자 지정 도메인 엔드포인트에서 사용자 고유의 인증서를 사용하고 Key Vault에 저장합니다.</t>
+          <t>해당되는 경우 엔드투엔드 TLS, HTTP에서 HTTPS로 리디렉션 및 관리형 TLS 인증서를 사용하도록 설정합니다.  Azure Front Door에 대한 TLS 모범 사례를 검토합니다.  TLS 버전 1.2를 애플리케이션과 관련된 암호와 함께 허용되는 최소 버전으로 사용합니다.  Azure Front Door 관리형 인증서는 작업을 쉽게 하기 위해 기본 선택이어야 합니다. 그러나 인증서의 수명 주기를 관리하려면 Azure Front Door 사용자 지정 도메인 엔드포인트에서 사용자 고유의 인증서를 사용하고 Key Vault에 저장합니다.</t>
         </is>
       </c>
       <c r="D17" s="21" t="inlineStr">
@@ -1469,7 +1469,7 @@
       <c r="B20" s="21" t="n"/>
       <c r="C20" s="21" t="inlineStr">
         <is>
-          <t>단일 백 엔드 풀에서 상태 검사를 사용하지 않도록 설정합니다. Azure Front Door 원본 그룹에 원본이 하나만 구성된 경우 이러한 호출이 필요하지 않습니다.</t>
+          <t>단일 백 엔드 풀에서 상태 검사를 사용하지 않도록 설정합니다. Azure Front Door 원본 그룹에 원본이 하나만 구성되어 있는 경우 이러한 호출이 필요하지 않습니다.</t>
         </is>
       </c>
       <c r="D20" s="21" t="inlineStr">
@@ -1678,7 +1678,7 @@
       </c>
       <c r="D26" s="21" t="inlineStr">
         <is>
-          <t>Azure Front Door는 네트워크 에지에서 콘텐츠를 캐시하는 강력한 콘텐츠 배달 네트워크 솔루션을 제공합니다. 캐싱은 백 엔드 서버의 부하를 줄이고 네트워크를 통한 데이터 이동을 줄여 대역폭 사용을 오프로드하는 데 도움이 됩니다.</t>
+          <t>Azure Front Door는 네트워크 에지에서 콘텐츠를 캐시하는 강력한 콘텐츠 배달 네트워크 솔루션을 제공합니다. 캐싱은 백엔드 서버의 부하를 줄이고 네트워크를 통한 데이터 이동을 줄여 대역폭 사용량을 오프로드하는 데 도움이 됩니다.</t>
         </is>
       </c>
       <c r="E26" s="21" t="n"/>
@@ -1712,7 +1712,7 @@
       </c>
       <c r="D27" s="21" t="inlineStr">
         <is>
-          <t>Azure Front Door의 압축은 최적의 형식으로 콘텐츠를 제공하고, 페이로드가 더 작고, 사용자에게 콘텐츠를 더 빠르게 전달하는 데 도움이 됩니다.</t>
+          <t>Azure Front Door의 압축은 최적의 형식으로 콘텐츠를 제공하고, 페이로드가 더 작고, 사용자에게 콘텐츠를 더 빠르게 제공하는 데 도움이 됩니다.</t>
         </is>
       </c>
       <c r="E27" s="21" t="n"/>
@@ -1773,7 +1773,7 @@
       <c r="B29" s="21" t="n"/>
       <c r="C29" s="21" t="inlineStr">
         <is>
-          <t>동일한 사용자의 요청이 동일한 백엔드 서버로 전달되어야 하는 경우 세션 선호도를 사용하도록 설정해야 하는지 여부를 평가합니다.  안정성 관점에서는 이 방법을 사용하지 않는 것이 좋습니다. 이 옵션을 사용하면 응용 프로그램이 사용자 세션을 중단하지 않고 정상적으로 복구되어야 합니다.  또한 부하 분산에 대한 절충안이 있는데, 이는 여러 백 엔드에 트래픽을 균등하게 분산하는 유연성을 제한하기 때문입니다.</t>
+          <t>동일한 사용자의 요청이 동일한 백엔드 서버로 전달되어야 하는 경우 세션 선호도를 사용하도록 설정해야 하는지 여부를 평가합니다.  안정성 관점에서는 이 방법을 권장하지 않습니다. 이 옵션을 사용하면 응용 프로그램이 사용자 세션을 중단하지 않고 정상적으로 복구되어야 합니다.  또한 부하 분산에는 여러 백엔드에 트래픽을 균등하게 분산하는 유연성을 제한하기 때문에 절충안이 있습니다.</t>
         </is>
       </c>
       <c r="D29" s="21" t="inlineStr">
